--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Acads\CMSC 127\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cary.quibada\Documents\GitHub\CMSC127DBLUKES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
-  <si>
-    <t>Entity</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
   <si>
     <t>Attribute</t>
   </si>
@@ -38,15 +35,6 @@
     <t>Type / Size</t>
   </si>
   <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ear </t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
     <t>Patient ID</t>
   </si>
   <si>
@@ -62,9 +50,6 @@
     <t>Middle Initial</t>
   </si>
   <si>
-    <t>School Name</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -101,12 +86,6 @@
     <t>Highest Educational Attainment</t>
   </si>
   <si>
-    <t>Date of Operation</t>
-  </si>
-  <si>
-    <t>Date of Discharge</t>
-  </si>
-  <si>
     <t>Left Ear Status</t>
   </si>
   <si>
@@ -143,9 +122,6 @@
     <t>patient_minitial</t>
   </si>
   <si>
-    <t>schoolname</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -182,21 +158,12 @@
     <t>highest_educational_attaintment</t>
   </si>
   <si>
-    <t>date_of_operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_of_discharge </t>
-  </si>
-  <si>
     <t>Integer</t>
   </si>
   <si>
     <t>Text (50)</t>
   </si>
   <si>
-    <t>Character</t>
-  </si>
-  <si>
     <t>Tiny Integer (3)</t>
   </si>
   <si>
@@ -215,12 +182,6 @@
     <t>Charaters (50)</t>
   </si>
   <si>
-    <t>Integer (10)</t>
-  </si>
-  <si>
-    <t>Tiny Integer (30)</t>
-  </si>
-  <si>
     <t>ear_remark</t>
   </si>
   <si>
@@ -263,26 +224,161 @@
     <t>Foreign/Patient</t>
   </si>
   <si>
-    <t>Attribute Description/Suggestions</t>
-  </si>
-  <si>
-    <t>Must be unique</t>
-  </si>
-  <si>
     <t>Can be the same as its present address</t>
   </si>
   <si>
     <t>Must be in lined with the ear's status</t>
   </si>
   <si>
-    <t>Can be none</t>
+    <t>Condition of Left Ear</t>
+  </si>
+  <si>
+    <t>Condition of Right Ear</t>
+  </si>
+  <si>
+    <t>school_number</t>
+  </si>
+  <si>
+    <t>Patient First name</t>
+  </si>
+  <si>
+    <t>Patient Last Name</t>
+  </si>
+  <si>
+    <t>Patient Middle Initial</t>
+  </si>
+  <si>
+    <t>Sex of Patient</t>
+  </si>
+  <si>
+    <t>Age of Patient</t>
+  </si>
+  <si>
+    <t>Birthdate of Patient</t>
+  </si>
+  <si>
+    <t>Birthplace of Patient</t>
+  </si>
+  <si>
+    <t>Religion of Patient</t>
+  </si>
+  <si>
+    <t>Highest Educational Attainment of Patient</t>
+  </si>
+  <si>
+    <t>Provincial Address of Patient</t>
+  </si>
+  <si>
+    <t>Civil Status of Patient</t>
+  </si>
+  <si>
+    <t>Monthly Income of Patient</t>
+  </si>
+  <si>
+    <t>Occupation of Patient. Can be none</t>
+  </si>
+  <si>
+    <t>Contact Number of Patient</t>
+  </si>
+  <si>
+    <t>Unique ID of School visited</t>
+  </si>
+  <si>
+    <t>Location of School</t>
+  </si>
+  <si>
+    <t>Name of contact person</t>
+  </si>
+  <si>
+    <t>Attribute Description</t>
+  </si>
+  <si>
+    <t>What was done in the school visited</t>
+  </si>
+  <si>
+    <t>Date when school was visited</t>
+  </si>
+  <si>
+    <t>Unique ID of each patient</t>
+  </si>
+  <si>
+    <t>Unsgined Tiny Integer (30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsigned Integer (10) </t>
+  </si>
+  <si>
+    <t>Character(1)</t>
+  </si>
+  <si>
+    <t>Enum("M","F")</t>
+  </si>
+  <si>
+    <t>Unsigned Integer</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>Not null</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>visual_acuity</t>
+  </si>
+  <si>
+    <t>with_pinhole</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>eye_remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rx </t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Eye Remark</t>
+  </si>
+  <si>
+    <t>Visual Acuity</t>
+  </si>
+  <si>
+    <t>With Pinhole</t>
+  </si>
+  <si>
+    <t>Text(50)</t>
+  </si>
+  <si>
+    <t>Text(500)</t>
+  </si>
+  <si>
+    <t>Foreign Patient</t>
+  </si>
+  <si>
+    <t>Text(8)</t>
+  </si>
+  <si>
+    <t>default null</t>
+  </si>
+  <si>
+    <t>Eye Remark for Patient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,16 +394,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -315,20 +425,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -339,6 +582,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A28:E33" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A28:E33"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Attribute"/>
+    <tableColumn id="2" name="Key Name"/>
+    <tableColumn id="3" name="Type / Size"/>
+    <tableColumn id="4" name="Key/Reference"/>
+    <tableColumn id="5" name="Attribute Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A22:E26" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A22:E26"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Attribute"/>
+    <tableColumn id="2" name="Key Name"/>
+    <tableColumn id="3" name="Type / Size"/>
+    <tableColumn id="4" name="Key/Reference"/>
+    <tableColumn id="5" name="Attribute Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A2:E19" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:E19"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Attribute"/>
+    <tableColumn id="2" name="Key Name"/>
+    <tableColumn id="3" name="Type / Size"/>
+    <tableColumn id="4" name="Constraint"/>
+    <tableColumn id="5" name="Attribute Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A35:E41" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A35:E41"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Attribute"/>
+    <tableColumn id="2" name="Key Name"/>
+    <tableColumn id="3" name="Type / Size"/>
+    <tableColumn id="4" name="Key/Reference"/>
+    <tableColumn id="5" name="Attribute Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,454 +948,610 @@
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
     <col min="6" max="6" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C32" t="s">
         <v>62</v>
       </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="E35" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>6</v>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
   <si>
     <t>Attribute</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>Eye Remark for Patient</t>
+  </si>
+  <si>
+    <t>Foreign/School ID</t>
   </si>
 </sst>
 </file>
@@ -940,7 +943,7 @@
   <dimension ref="A2:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1052,7 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
